--- a/PB_from_notebook.xlsx
+++ b/PB_from_notebook.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>X1</t>
   </si>
@@ -134,15 +134,6 @@
   </si>
   <si>
     <t>PB_4200</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>RPT_2200</t>
-  </si>
-  <si>
-    <t>RPT_4200</t>
   </si>
 </sst>
 </file>
@@ -492,15 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -510,14 +501,8 @@
       <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +513,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -539,7 +524,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -550,7 +535,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -561,7 +546,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -572,7 +557,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -583,7 +568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -594,7 +579,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -605,21 +590,18 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
+      <c r="B10">
+        <v>584</v>
       </c>
       <c r="C10">
         <v>454</v>
       </c>
-      <c r="D10">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -630,7 +612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -641,7 +623,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -652,7 +634,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -663,7 +645,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -674,7 +656,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -682,12 +664,6 @@
         <v>585</v>
       </c>
       <c r="C16">
-        <v>454</v>
-      </c>
-      <c r="D16">
-        <v>583</v>
-      </c>
-      <c r="E16">
         <v>443</v>
       </c>
     </row>
